--- a/Finflux Automation Excels/Client/5042-CompondingPenalityCharge-Preclose.xlsx
+++ b/Finflux Automation Excels/Client/5042-CompondingPenalityCharge-Preclose.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="83">
   <si>
     <t>clickonnewloan</t>
   </si>
@@ -271,13 +271,10 @@
     <t>% Loan Amount + Interest</t>
   </si>
   <si>
-    <t>$2.43</t>
-  </si>
-  <si>
     <t>$0</t>
   </si>
   <si>
-    <t>$10.82</t>
+    <t>$12.55</t>
   </si>
 </sst>
 </file>
@@ -841,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -951,7 +948,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -996,7 +993,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
-        <v>186.26</v>
+        <v>186.21</v>
       </c>
       <c r="B3" s="13">
         <v>51.01</v>
@@ -1008,7 +1005,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="13">
-        <v>135.25</v>
+        <v>135.19999999999999</v>
       </c>
       <c r="F3" s="13">
         <v>38.32</v>
@@ -1036,7 +1033,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
-        <v>13.25</v>
+        <v>12.55</v>
       </c>
       <c r="B5" s="13">
         <v>0</v>
@@ -1048,10 +1045,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="13">
-        <v>13.25</v>
+        <v>12.55</v>
       </c>
       <c r="F5" s="13">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1064,7 +1061,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1150,10 +1147,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="13">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="G4" s="13">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1173,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="F5" s="13">
-        <v>10.82</v>
+        <v>12.55</v>
       </c>
       <c r="G5" s="13">
-        <v>898.54</v>
+        <v>900.27</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1184,13 +1181,13 @@
         <v>42129</v>
       </c>
       <c r="B6" s="13">
-        <v>863.56</v>
+        <v>863.58</v>
       </c>
       <c r="C6" s="14">
-        <v>1596.38</v>
+        <v>1596.36</v>
       </c>
       <c r="D6" s="13">
-        <v>24.16</v>
+        <v>24.14</v>
       </c>
       <c r="E6" s="13">
         <v>0</v>
@@ -1210,7 +1207,7 @@
         <v>871.46</v>
       </c>
       <c r="C7" s="13">
-        <v>724.92</v>
+        <v>724.9</v>
       </c>
       <c r="D7" s="13">
         <v>16.260000000000002</v>
@@ -1230,7 +1227,7 @@
         <v>42190</v>
       </c>
       <c r="B8" s="13">
-        <v>724.92</v>
+        <v>724.9</v>
       </c>
       <c r="C8" s="13">
         <v>0</v>
@@ -1245,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="13">
-        <v>732.06</v>
+        <v>732.04</v>
       </c>
     </row>
   </sheetData>
@@ -1258,7 +1255,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1400,22 +1397,22 @@
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
       <c r="F4" s="13">
-        <v>844.77</v>
+        <v>844.78</v>
       </c>
       <c r="G4" s="14">
-        <v>3318.52</v>
+        <v>3318.51</v>
       </c>
       <c r="H4" s="13">
-        <v>42.95</v>
+        <v>42.94</v>
       </c>
       <c r="I4" s="13">
         <v>0</v>
       </c>
       <c r="J4" s="13">
-        <v>2.4300000000000002</v>
+        <v>0</v>
       </c>
       <c r="K4" s="13">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
       <c r="L4" s="13">
         <v>0</v>
@@ -1429,7 +1426,7 @@
       </c>
       <c r="P4" s="13"/>
       <c r="Q4" s="13">
-        <v>890.15</v>
+        <v>887.72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1445,22 +1442,22 @@
       <c r="D5" s="13"/>
       <c r="E5" s="13"/>
       <c r="F5" s="13">
-        <v>843.44</v>
+        <v>843.46</v>
       </c>
       <c r="G5" s="14">
-        <v>2475.08</v>
+        <v>2475.0500000000002</v>
       </c>
       <c r="H5" s="13">
-        <v>44.28</v>
+        <v>44.26</v>
       </c>
       <c r="I5" s="13">
         <v>0</v>
       </c>
       <c r="J5" s="13">
-        <v>10.82</v>
+        <v>12.55</v>
       </c>
       <c r="K5" s="13">
-        <v>898.54</v>
+        <v>900.27</v>
       </c>
       <c r="L5" s="13">
         <v>0</v>
@@ -1474,7 +1471,7 @@
       </c>
       <c r="P5" s="13"/>
       <c r="Q5" s="13">
-        <v>898.54</v>
+        <v>900.27</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1490,13 +1487,13 @@
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13">
-        <v>863.41</v>
+        <v>863.43</v>
       </c>
       <c r="G6" s="14">
-        <v>1611.67</v>
+        <v>1611.62</v>
       </c>
       <c r="H6" s="13">
-        <v>24.31</v>
+        <v>24.29</v>
       </c>
       <c r="I6" s="13">
         <v>0</v>
@@ -1538,7 +1535,7 @@
         <v>871.3</v>
       </c>
       <c r="G7" s="13">
-        <v>740.37</v>
+        <v>740.32</v>
       </c>
       <c r="H7" s="13">
         <v>16.420000000000002</v>
@@ -1580,7 +1577,7 @@
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13">
-        <v>740.37</v>
+        <v>740.32</v>
       </c>
       <c r="G8" s="13">
         <v>0</v>
@@ -1595,7 +1592,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="13">
-        <v>747.66</v>
+        <v>747.61</v>
       </c>
       <c r="L8" s="13">
         <v>0</v>
@@ -1609,7 +1606,7 @@
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="13">
-        <v>747.66</v>
+        <v>747.61</v>
       </c>
     </row>
   </sheetData>
@@ -1622,7 +1619,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1664,7 +1661,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>1133</v>
+        <v>343</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>66</v>
@@ -1676,19 +1673,19 @@
         <v>67</v>
       </c>
       <c r="E2" s="13">
-        <v>45.77</v>
+        <v>45.74</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="14">
-        <v>4536.25</v>
+        <v>4533.79</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
-        <v>1132</v>
+        <v>342</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>66</v>
@@ -1700,7 +1697,7 @@
         <v>68</v>
       </c>
       <c r="E3" s="13">
-        <v>45.77</v>
+        <v>45.74</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -1712,7 +1709,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>1131</v>
+        <v>341</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>66</v>
@@ -1724,19 +1721,19 @@
         <v>67</v>
       </c>
       <c r="E4" s="13">
-        <v>46.1</v>
+        <v>43.67</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="14">
-        <v>4490.4799999999996</v>
+        <v>4488.05</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
-        <v>1130</v>
+        <v>340</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>66</v>
@@ -1748,7 +1745,7 @@
         <v>68</v>
       </c>
       <c r="E5" s="13">
-        <v>46.1</v>
+        <v>43.67</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
@@ -1760,7 +1757,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <v>1129</v>
+        <v>339</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>66</v>
@@ -1784,7 +1781,7 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
-        <v>1124</v>
+        <v>334</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>66</v>
@@ -1808,7 +1805,7 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
-        <v>1123</v>
+        <v>333</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>66</v>
@@ -1832,7 +1829,7 @@
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
-        <v>1122</v>
+        <v>332</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>66</v>
@@ -1861,15 +1858,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1918,7 +1916,7 @@
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>77</v>
       </c>
@@ -1930,60 +1928,28 @@
         <v>79</v>
       </c>
       <c r="E3" s="15">
-        <v>42050</v>
+        <v>42095</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>80</v>
       </c>
       <c r="G3" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="I3" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>81</v>
-      </c>
       <c r="K3" s="16"/>
-    </row>
-    <row r="4" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="E4" s="15">
-        <v>42095</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="K4" s="16"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/29/waivecharge/179" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/29/waivecharge/179"/>
-    <hyperlink ref="K4" r:id="rId2" location="/loanaccountcharge/29/waivecharge/180" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/29/waivecharge/180"/>
+    <hyperlink ref="K3" r:id="rId1" location="/loanaccountcharge/13/waivecharge/74" display="D:\bharath\Code\conflux-web\app\index.html?baseApiUrl=https:\localhost:8443\fineract-provider\api\v1&amp;tenantIdentifier=default - /loanaccountcharge/13/waivecharge/74"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
